--- a/data/output/FV2504_FV2410/INVOIC/31002.xlsx
+++ b/data/output/FV2504_FV2410/INVOIC/31002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5588" uniqueCount="494">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5609" uniqueCount="494">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1650,6 +1650,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U242" totalsRowShown="0">
+  <autoFilter ref="A1:U242"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1939,7 +1969,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13768,5 +13801,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/INVOIC/31002.xlsx
+++ b/data/output/FV2504_FV2410/INVOIC/31002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6963" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6905" uniqueCount="717">
   <si>
     <t>#</t>
   </si>
@@ -6349,9 +6349,7 @@
         <v>362</v>
       </c>
       <c r="K72" s="2"/>
-      <c r="L72" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L72" s="5"/>
       <c r="M72" s="2" t="s">
         <v>35</v>
       </c>
@@ -6405,9 +6403,7 @@
         <v>362</v>
       </c>
       <c r="K73" s="2"/>
-      <c r="L73" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L73" s="5"/>
       <c r="M73" s="2" t="s">
         <v>35</v>
       </c>
@@ -6573,9 +6569,7 @@
         <v>362</v>
       </c>
       <c r="K76" s="2"/>
-      <c r="L76" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L76" s="5"/>
       <c r="M76" s="2" t="s">
         <v>35</v>
       </c>
@@ -6955,9 +6949,7 @@
       <c r="K83" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="L83" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L83" s="5"/>
       <c r="M83" s="2" t="s">
         <v>36</v>
       </c>
@@ -7387,9 +7379,7 @@
         <v>378</v>
       </c>
       <c r="K91" s="2"/>
-      <c r="L91" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L91" s="5"/>
       <c r="M91" s="2" t="s">
         <v>38</v>
       </c>
@@ -7443,9 +7433,7 @@
         <v>378</v>
       </c>
       <c r="K92" s="2"/>
-      <c r="L92" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L92" s="5"/>
       <c r="M92" s="2" t="s">
         <v>38</v>
       </c>
@@ -7499,9 +7487,7 @@
         <v>378</v>
       </c>
       <c r="K93" s="2"/>
-      <c r="L93" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L93" s="5"/>
       <c r="M93" s="2" t="s">
         <v>38</v>
       </c>
@@ -7555,9 +7541,7 @@
         <v>378</v>
       </c>
       <c r="K94" s="2"/>
-      <c r="L94" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L94" s="5"/>
       <c r="M94" s="2" t="s">
         <v>38</v>
       </c>
@@ -7831,9 +7815,7 @@
         <v>362</v>
       </c>
       <c r="K99" s="2"/>
-      <c r="L99" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L99" s="5"/>
       <c r="M99" s="2" t="s">
         <v>39</v>
       </c>
@@ -7887,9 +7869,7 @@
         <v>362</v>
       </c>
       <c r="K100" s="2"/>
-      <c r="L100" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L100" s="5"/>
       <c r="M100" s="2" t="s">
         <v>39</v>
       </c>
@@ -8055,9 +8035,7 @@
         <v>362</v>
       </c>
       <c r="K103" s="2"/>
-      <c r="L103" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L103" s="5"/>
       <c r="M103" s="2" t="s">
         <v>39</v>
       </c>
@@ -8437,9 +8415,7 @@
       <c r="K110" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="L110" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L110" s="5"/>
       <c r="M110" s="2" t="s">
         <v>36</v>
       </c>
@@ -9855,9 +9831,7 @@
       <c r="K136" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="L136" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L136" s="5"/>
       <c r="M136" s="2" t="s">
         <v>45</v>
       </c>
@@ -10133,9 +10107,7 @@
         <v>362</v>
       </c>
       <c r="K141" s="2"/>
-      <c r="L141" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L141" s="5"/>
       <c r="M141" s="2" t="s">
         <v>46</v>
       </c>
@@ -10189,9 +10161,7 @@
         <v>388</v>
       </c>
       <c r="K142" s="2"/>
-      <c r="L142" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L142" s="5"/>
       <c r="M142" s="2" t="s">
         <v>46</v>
       </c>
@@ -10245,9 +10215,7 @@
         <v>388</v>
       </c>
       <c r="K143" s="2"/>
-      <c r="L143" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L143" s="5"/>
       <c r="M143" s="2" t="s">
         <v>46</v>
       </c>
@@ -10303,9 +10271,7 @@
       <c r="K144" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="L144" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L144" s="5"/>
       <c r="M144" s="2" t="s">
         <v>46</v>
       </c>
@@ -10585,9 +10551,7 @@
         <v>391</v>
       </c>
       <c r="K149" s="2"/>
-      <c r="L149" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L149" s="5"/>
       <c r="M149" s="2" t="s">
         <v>47</v>
       </c>
@@ -10643,9 +10607,7 @@
       <c r="K150" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="L150" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L150" s="5"/>
       <c r="M150" s="2" t="s">
         <v>47</v>
       </c>
@@ -11685,9 +11647,7 @@
         <v>395</v>
       </c>
       <c r="K169" s="2"/>
-      <c r="L169" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L169" s="5"/>
       <c r="M169" s="2" t="s">
         <v>52</v>
       </c>
@@ -11743,9 +11703,7 @@
       <c r="K170" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="L170" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L170" s="5"/>
       <c r="M170" s="2" t="s">
         <v>52</v>
       </c>
@@ -12079,9 +12037,7 @@
         <v>362</v>
       </c>
       <c r="K176" s="2"/>
-      <c r="L176" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L176" s="5"/>
       <c r="M176" s="2" t="s">
         <v>53</v>
       </c>
@@ -12135,9 +12091,7 @@
         <v>362</v>
       </c>
       <c r="K177" s="2"/>
-      <c r="L177" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L177" s="5"/>
       <c r="M177" s="2" t="s">
         <v>53</v>
       </c>
@@ -12353,9 +12307,7 @@
         <v>362</v>
       </c>
       <c r="K181" s="2"/>
-      <c r="L181" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L181" s="5"/>
       <c r="M181" s="2" t="s">
         <v>54</v>
       </c>
@@ -13057,9 +13009,7 @@
         <v>362</v>
       </c>
       <c r="K194" s="2"/>
-      <c r="L194" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L194" s="5"/>
       <c r="M194" s="2" t="s">
         <v>58</v>
       </c>
@@ -13113,9 +13063,7 @@
         <v>362</v>
       </c>
       <c r="K195" s="2"/>
-      <c r="L195" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L195" s="5"/>
       <c r="M195" s="2" t="s">
         <v>58</v>
       </c>
@@ -13171,9 +13119,7 @@
       <c r="K196" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="L196" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L196" s="5"/>
       <c r="M196" s="2" t="s">
         <v>58</v>
       </c>
@@ -14787,9 +14733,7 @@
         <v>362</v>
       </c>
       <c r="K226" s="2"/>
-      <c r="L226" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L226" s="5"/>
       <c r="M226" s="2" t="s">
         <v>67</v>
       </c>
@@ -14843,9 +14787,7 @@
         <v>362</v>
       </c>
       <c r="K227" s="2"/>
-      <c r="L227" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="L227" s="5"/>
       <c r="M227" s="2" t="s">
         <v>67</v>
       </c>
